--- a/Results_and_scripts_ps/agglomeration_comparision.xlsx
+++ b/Results_and_scripts_ps/agglomeration_comparision.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>constants</t>
   </si>
@@ -183,7 +183,10 @@
     <t>case 11</t>
   </si>
   <si>
-    <t>Vastaava log-normaali jakauma lopussa: gsd=1,6691, µ=9e-9, N=Ntot(end)</t>
+    <t>Tämä jakauma on hieman erilainen kuin todellinen jakauma lopussa.</t>
+  </si>
+  <si>
+    <t>Vastaava log-normaali jakauma lopussa: gsd=1,6691, µ=9e-9, N=Ntot(end).</t>
   </si>
 </sst>
 </file>
@@ -627,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,7 +1753,7 @@
         <v>54</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T25" s="10"/>
     </row>
@@ -1785,6 +1788,9 @@
       <c r="P26" s="5">
         <f t="shared" si="1"/>
         <v>2.2127790640149243E-8</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="5:26" x14ac:dyDescent="0.25">

--- a/Results_and_scripts_ps/agglomeration_comparision.xlsx
+++ b/Results_and_scripts_ps/agglomeration_comparision.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>constants</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>Vastaava log-normaali jakauma lopussa: gsd=1,6691, µ=9e-9, N=Ntot(end).</t>
+  </si>
+  <si>
+    <t>run_20130703T120128</t>
+  </si>
+  <si>
+    <t>case 12</t>
+  </si>
+  <si>
+    <t>Nyt Lehtisen malli alkaa ajanhetkellä t=7000s, jolloin jakauman gsd on jo tasaantunut.</t>
   </si>
 </sst>
 </file>
@@ -628,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z47"/>
+  <dimension ref="B1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,11 +775,11 @@
         <v>3.1867000000000001E-24</v>
       </c>
       <c r="U3" s="7">
-        <f t="shared" ref="U3:U13" si="0">(6/PI()*S3)^(1/3)</f>
+        <f t="shared" ref="U3:U14" si="0">(6/PI()*S3)^(1/3)</f>
         <v>4.4879920386537854E-9</v>
       </c>
       <c r="V3" s="7">
-        <f>(6/PI()*T3)^(1/3)</f>
+        <f t="shared" ref="V3:V14" si="1">(6/PI()*T3)^(1/3)</f>
         <v>1.8257761068390433E-8</v>
       </c>
       <c r="W3" s="5" t="s">
@@ -832,7 +841,7 @@
         <v>4.4714324365603058E-9</v>
       </c>
       <c r="V4" s="5">
-        <f>(6/PI()*T4)^(1/3)</f>
+        <f t="shared" si="1"/>
         <v>1.7042538655930748E-8</v>
       </c>
       <c r="W4" s="5" t="s">
@@ -894,7 +903,7 @@
         <v>4.4714324365603058E-9</v>
       </c>
       <c r="V5" s="5">
-        <f>(6/PI()*T5)^(1/3)</f>
+        <f t="shared" si="1"/>
         <v>1.6950200596507373E-8</v>
       </c>
       <c r="W5" s="5" t="s">
@@ -956,7 +965,7 @@
         <v>4.4508320664919729E-9</v>
       </c>
       <c r="V6" s="5">
-        <f>(6/PI()*T6)^(1/3)</f>
+        <f t="shared" si="1"/>
         <v>1.677580160348522E-8</v>
       </c>
       <c r="W6" s="5" t="s">
@@ -1017,7 +1026,7 @@
         <v>4.3900388943555568E-9</v>
       </c>
       <c r="V7" s="5">
-        <f>(6/PI()*T7)^(1/3)</f>
+        <f t="shared" si="1"/>
         <v>3.7760460883725273E-8</v>
       </c>
       <c r="W7" s="5" t="s">
@@ -1078,7 +1087,7 @@
         <v>4.311066107773415E-9</v>
       </c>
       <c r="V8" s="5">
-        <f>(6/PI()*T8)^(1/3)</f>
+        <f t="shared" si="1"/>
         <v>3.637287743088273E-8</v>
       </c>
       <c r="W8" s="5" t="s">
@@ -1133,7 +1142,7 @@
         <v>2.9400892322048379E-9</v>
       </c>
       <c r="V9" s="5">
-        <f>(6/PI()*T9)^(1/3)</f>
+        <f t="shared" si="1"/>
         <v>6.2862672347045849E-8</v>
       </c>
       <c r="W9" s="5" t="s">
@@ -1188,7 +1197,7 @@
         <v>2.8406539658065688E-9</v>
       </c>
       <c r="V10" s="5">
-        <f>(6/PI()*T10)^(1/3)</f>
+        <f t="shared" si="1"/>
         <v>5.8615974183811462E-8</v>
       </c>
       <c r="W10" s="5" t="s">
@@ -1243,7 +1252,7 @@
         <v>2.9400892322048379E-9</v>
       </c>
       <c r="V11" s="5">
-        <f>(6/PI()*T11)^(1/3)</f>
+        <f t="shared" si="1"/>
         <v>1.0847582055836149E-8</v>
       </c>
       <c r="W11" s="5" t="s">
@@ -1298,7 +1307,7 @@
         <v>7.3839825453379898E-9</v>
       </c>
       <c r="V12" s="5">
-        <f>(6/PI()*T12)^(1/3)</f>
+        <f t="shared" si="1"/>
         <v>2.3007788068995822E-8</v>
       </c>
       <c r="W12" s="5" t="s">
@@ -1353,182 +1362,119 @@
         <v>7.4044756005934623E-9</v>
       </c>
       <c r="V13" s="5">
-        <f>(6/PI()*T13)^(1/3)</f>
+        <f t="shared" si="1"/>
         <v>1.3104829366152134E-8</v>
       </c>
       <c r="W13" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-10</v>
+      </c>
+      <c r="H14" s="2">
+        <v>-6</v>
+      </c>
+      <c r="I14" s="2">
+        <v>60</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="4">
+        <v>3E-10</v>
+      </c>
+      <c r="L14" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="M14" s="4">
+        <v>3E-10</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="O14" s="4">
+        <v>500000000</v>
+      </c>
+      <c r="P14" s="12">
+        <v>10000</v>
+      </c>
+      <c r="R14" s="6">
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="S14" s="7">
+        <v>4.6166E-29</v>
+      </c>
+      <c r="T14" s="7">
+        <v>3.4705999999999999E-24</v>
+      </c>
+      <c r="U14" s="5">
+        <f t="shared" si="0"/>
+        <v>4.4508320664919681E-10</v>
+      </c>
+      <c r="V14" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8784601229723353E-8</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
+    <row r="19" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="N19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>2</v>
-      </c>
-      <c r="H17" s="4">
-        <v>3E-10</v>
-      </c>
-      <c r="I17" s="2">
-        <v>3400</v>
-      </c>
-      <c r="J17" s="4">
-        <v>3E-9</v>
-      </c>
-      <c r="K17" s="4">
-        <v>8000000</v>
-      </c>
-      <c r="L17" s="4">
-        <v>4.7332E-26</v>
-      </c>
-      <c r="M17" s="12">
-        <v>3600</v>
-      </c>
-      <c r="O17" s="7">
-        <v>2.7348E-24</v>
-      </c>
-      <c r="P17" s="5">
-        <f t="shared" ref="P17:P27" si="1">(6/PI()*O17)^(1/3)</f>
-        <v>1.7350379681373881E-8</v>
-      </c>
-      <c r="R17" t="s">
-        <v>42</v>
-      </c>
-      <c r="S17" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-    </row>
-    <row r="18" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="G18" s="2">
-        <v>2</v>
-      </c>
-      <c r="H18" s="4">
-        <v>3E-10</v>
-      </c>
-      <c r="I18" s="2">
-        <v>3400</v>
-      </c>
-      <c r="J18" s="4">
-        <v>3E-9</v>
-      </c>
-      <c r="K18" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="L18" s="4">
-        <v>4.6809999999999998E-26</v>
-      </c>
-      <c r="M18" s="12">
-        <v>3600</v>
-      </c>
-      <c r="O18" s="7">
-        <v>2.2407000000000002E-24</v>
-      </c>
-      <c r="P18" s="5">
-        <f t="shared" si="1"/>
-        <v>1.6235351560530031E-8</v>
-      </c>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-    </row>
-    <row r="19" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="G19" s="2">
-        <v>2</v>
-      </c>
-      <c r="H19" s="4">
-        <v>3E-10</v>
-      </c>
-      <c r="I19" s="2">
-        <v>3400</v>
-      </c>
-      <c r="J19" s="4">
-        <v>3E-9</v>
-      </c>
-      <c r="K19" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="L19" s="4">
-        <v>4.6809999999999998E-26</v>
-      </c>
-      <c r="M19" s="12">
-        <v>3600</v>
-      </c>
-      <c r="O19" s="7">
-        <v>2.2407000000000002E-24</v>
-      </c>
-      <c r="P19" s="5">
-        <f t="shared" si="1"/>
-        <v>1.6235351560530031E-8</v>
-      </c>
-      <c r="R19" t="s">
-        <v>43</v>
-      </c>
-      <c r="S19" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
       <c r="Y19" s="11"/>
       <c r="Z19" s="11"/>
     </row>
     <row r="20" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
         <v>2</v>
@@ -1543,23 +1489,26 @@
         <v>3E-9</v>
       </c>
       <c r="K20" s="4">
-        <v>1000000</v>
+        <v>8000000</v>
       </c>
       <c r="L20" s="4">
-        <v>4.6165999999999999E-26</v>
+        <v>4.7332E-26</v>
       </c>
       <c r="M20" s="12">
         <v>3600</v>
       </c>
       <c r="O20" s="7">
-        <v>2.1837999999999999E-24</v>
+        <v>2.7348E-24</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="1"/>
-        <v>1.609674557973075E-8</v>
+        <f t="shared" ref="P20:P31" si="2">(6/PI()*O20)^(1/3)</f>
+        <v>1.7350379681373881E-8</v>
+      </c>
+      <c r="R20" t="s">
+        <v>42</v>
       </c>
       <c r="S20" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
@@ -1568,7 +1517,7 @@
     </row>
     <row r="21" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G21" s="2">
         <v>2</v>
@@ -1586,27 +1535,27 @@
         <v>1000000</v>
       </c>
       <c r="L21" s="4">
-        <v>4.4300000000000001E-26</v>
+        <v>4.6809999999999998E-26</v>
       </c>
       <c r="M21" s="12">
-        <v>14400</v>
+        <v>3600</v>
       </c>
       <c r="O21" s="7">
-        <v>2.5590999999999999E-23</v>
+        <v>2.2407000000000002E-24</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" si="1"/>
-        <v>3.6561966368813765E-8</v>
-      </c>
-      <c r="S21" s="14" t="s">
-        <v>49</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>1.6235351560530031E-8</v>
+      </c>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
     </row>
     <row r="22" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G22" s="2">
         <v>2</v>
@@ -1624,642 +1573,795 @@
         <v>1000000</v>
       </c>
       <c r="L22" s="4">
-        <v>4.1952000000000002E-26</v>
+        <v>4.6809999999999998E-26</v>
       </c>
       <c r="M22" s="12">
-        <v>14400</v>
+        <v>3600</v>
       </c>
       <c r="O22" s="7">
-        <v>2.3002000000000001E-23</v>
+        <v>2.2407000000000002E-24</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="1"/>
-        <v>3.528490823174771E-8</v>
-      </c>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="11"/>
+        <f t="shared" si="2"/>
+        <v>1.6235351560530031E-8</v>
+      </c>
+      <c r="R22" t="s">
+        <v>43</v>
+      </c>
+      <c r="S22" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
     </row>
     <row r="23" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G23" s="2">
         <v>2</v>
       </c>
       <c r="H23" s="4">
-        <v>2.0000000000000001E-9</v>
+        <v>3E-10</v>
       </c>
       <c r="I23" s="2">
         <v>3400</v>
       </c>
       <c r="J23" s="4">
-        <v>2.0000000000000001E-9</v>
+        <v>3E-9</v>
       </c>
       <c r="K23" s="4">
-        <v>50000000</v>
+        <v>1000000</v>
       </c>
       <c r="L23" s="4">
-        <v>1.3306999999999999E-26</v>
+        <v>4.6165999999999999E-26</v>
       </c>
       <c r="M23" s="12">
-        <v>14400</v>
+        <v>3600</v>
       </c>
       <c r="O23" s="7">
-        <v>1.2183000000000001E-22</v>
+        <v>2.1837999999999999E-24</v>
       </c>
       <c r="P23" s="5">
-        <f t="shared" si="1"/>
-        <v>6.1506149657383851E-8</v>
-      </c>
-      <c r="R23" t="s">
-        <v>53</v>
-      </c>
-      <c r="S23" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="T23" s="10"/>
-      <c r="U23" s="11"/>
+        <f t="shared" si="2"/>
+        <v>1.609674557973075E-8</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
     </row>
     <row r="24" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G24" s="2">
         <v>2</v>
       </c>
       <c r="H24" s="4">
-        <v>2.0000000000000001E-9</v>
+        <v>3E-10</v>
       </c>
       <c r="I24" s="2">
         <v>3400</v>
       </c>
       <c r="J24" s="4">
-        <v>2.0000000000000001E-9</v>
+        <v>3E-9</v>
       </c>
       <c r="K24" s="4">
-        <v>50000000</v>
+        <v>1000000</v>
       </c>
       <c r="L24" s="4">
-        <v>1.2002E-26</v>
+        <v>4.4300000000000001E-26</v>
       </c>
       <c r="M24" s="12">
         <v>14400</v>
       </c>
       <c r="O24" s="7">
-        <v>9.9213000000000001E-23</v>
+        <v>2.5590999999999999E-23</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" si="1"/>
-        <v>5.7436767027602192E-8</v>
-      </c>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="11"/>
+        <f t="shared" si="2"/>
+        <v>3.6561966368813765E-8</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G25" s="2">
         <v>2</v>
       </c>
       <c r="H25" s="4">
-        <v>2.0000000000000001E-9</v>
+        <v>3E-10</v>
       </c>
       <c r="I25" s="2">
         <v>3400</v>
       </c>
       <c r="J25" s="4">
-        <v>2.0000000000000001E-9</v>
+        <v>3E-9</v>
       </c>
       <c r="K25" s="4">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="L25" s="4">
-        <v>1.3306999999999999E-26</v>
+        <v>4.1952000000000002E-26</v>
       </c>
       <c r="M25" s="12">
         <v>14400</v>
       </c>
       <c r="O25" s="7">
-        <v>5.9411E-25</v>
+        <v>2.3002000000000001E-23</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" si="1"/>
-        <v>1.0430122601003119E-8</v>
-      </c>
-      <c r="R25" t="s">
-        <v>54</v>
-      </c>
-      <c r="S25" s="10" t="s">
-        <v>56</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>3.528490823174771E-8</v>
+      </c>
+      <c r="S25" s="10"/>
       <c r="T25" s="10"/>
+      <c r="U25" s="11"/>
     </row>
     <row r="26" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E26">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G26" s="2">
         <v>2</v>
       </c>
       <c r="H26" s="4">
-        <v>2.5000000000000001E-9</v>
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="I26" s="2">
         <v>3400</v>
       </c>
       <c r="J26" s="4">
-        <v>5.0000000000000001E-9</v>
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="K26" s="4">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="L26" s="4">
-        <v>2.108E-25</v>
+        <v>1.3306999999999999E-26</v>
       </c>
       <c r="M26" s="12">
-        <v>1000</v>
+        <v>14400</v>
       </c>
       <c r="O26" s="7">
-        <v>5.6730000000000003E-24</v>
+        <v>1.2183000000000001E-22</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="1"/>
-        <v>2.2127790640149243E-8</v>
+        <f t="shared" si="2"/>
+        <v>6.1506149657383851E-8</v>
+      </c>
+      <c r="R26" t="s">
+        <v>53</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>55</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="T26" s="10"/>
+      <c r="U26" s="11"/>
     </row>
     <row r="27" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E27">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G27" s="2">
         <v>2</v>
       </c>
       <c r="H27" s="4">
-        <v>2.5000000000000001E-9</v>
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="I27" s="2">
         <v>3400</v>
       </c>
       <c r="J27" s="4">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="K27" s="4">
+        <v>50000000</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1.2002E-26</v>
+      </c>
+      <c r="M27" s="12">
+        <v>14400</v>
+      </c>
+      <c r="O27" s="7">
+        <v>9.9213000000000001E-23</v>
+      </c>
+      <c r="P27" s="5">
+        <f t="shared" si="2"/>
+        <v>5.7436767027602192E-8</v>
+      </c>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="11"/>
+    </row>
+    <row r="28" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="I28" s="2">
+        <v>3400</v>
+      </c>
+      <c r="J28" s="4">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="K28" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="L28" s="4">
+        <v>1.3306999999999999E-26</v>
+      </c>
+      <c r="M28" s="12">
+        <v>14400</v>
+      </c>
+      <c r="O28" s="7">
+        <v>5.9411E-25</v>
+      </c>
+      <c r="P28" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0430122601003119E-8</v>
+      </c>
+      <c r="R28" t="s">
+        <v>54</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2.5000000000000001E-9</v>
+      </c>
+      <c r="I29" s="2">
+        <v>3400</v>
+      </c>
+      <c r="J29" s="4">
         <v>5.0000000000000001E-9</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K29" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="L29" s="4">
+        <v>2.108E-25</v>
+      </c>
+      <c r="M29" s="12">
+        <v>1000</v>
+      </c>
+      <c r="O29" s="7">
+        <v>5.6730000000000003E-24</v>
+      </c>
+      <c r="P29" s="5">
+        <f t="shared" si="2"/>
+        <v>2.2127790640149243E-8</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>11</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2.5000000000000001E-9</v>
+      </c>
+      <c r="I30" s="2">
+        <v>3400</v>
+      </c>
+      <c r="J30" s="4">
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="K30" s="4">
         <v>3000000</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L30" s="4">
         <v>2.1256000000000002E-25</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M30" s="12">
         <v>1000</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O30" s="7">
         <v>1.0871E-24</v>
       </c>
-      <c r="P27" s="5">
-        <f t="shared" si="1"/>
+      <c r="P30" s="5">
+        <f t="shared" si="2"/>
         <v>1.275724681172701E-8</v>
       </c>
     </row>
-    <row r="29" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
+    <row r="31" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2</v>
+      </c>
+      <c r="H31" s="4">
+        <v>3E-10</v>
+      </c>
+      <c r="I31" s="2">
+        <v>3400</v>
+      </c>
+      <c r="J31" s="4">
+        <v>3E-10</v>
+      </c>
+      <c r="K31" s="4">
+        <v>500000000</v>
+      </c>
+      <c r="L31" s="4">
+        <v>1.7098999999999998E-24</v>
+      </c>
+      <c r="M31" s="12">
+        <v>10000</v>
+      </c>
+      <c r="O31" s="7">
+        <v>3.3635999999999997E-24</v>
+      </c>
+      <c r="P31" s="5">
+        <f t="shared" si="2"/>
+        <v>1.8589537028862798E-8</v>
+      </c>
+      <c r="R31" t="s">
+        <v>58</v>
+      </c>
+      <c r="S31" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
         <v>29</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F34" t="s">
         <v>21</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G34" t="s">
         <v>25</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H34" t="s">
         <v>26</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I34" t="s">
         <v>31</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K34" t="s">
         <v>30</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L34" t="s">
         <v>21</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M34" t="s">
         <v>25</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N34" t="s">
         <v>26</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="F30">
+    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F35">
         <v>1</v>
       </c>
-      <c r="G30" s="10">
-        <f t="shared" ref="G30:G40" si="2">T3/S3</f>
+      <c r="G35" s="11">
+        <f t="shared" ref="G35:G46" si="3">T3/L20</f>
         <v>67.326544409701683</v>
       </c>
-      <c r="H30" s="10">
-        <f t="shared" ref="H30:H40" si="3">O17/L17</f>
+      <c r="H35" s="11">
+        <f t="shared" ref="H35:H46" si="4">O20/L20</f>
         <v>57.77909236879912</v>
       </c>
-      <c r="I30" s="10">
-        <f t="shared" ref="I30:I40" si="4">ABS(H30-G30)/H30*100</f>
+      <c r="I35" s="11">
+        <f t="shared" ref="I35:I46" si="5">ABS(H35-G35)/H35*100</f>
         <v>16.524060260348111</v>
-      </c>
-      <c r="J30" s="10"/>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30" s="10">
-        <f t="shared" ref="M30:M40" si="5">V3/U3</f>
-        <v>4.0681357968422374</v>
-      </c>
-      <c r="N30" s="10">
-        <f t="shared" ref="N30:N40" si="6">P17/U3</f>
-        <v>3.8659559847566682</v>
-      </c>
-      <c r="O30" s="10">
-        <f t="shared" ref="O30:O40" si="7">ABS(N30-M30)/N30*100</f>
-        <v>5.2297494560920299</v>
-      </c>
-    </row>
-    <row r="31" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31" s="10">
-        <f t="shared" si="2"/>
-        <v>55.368511001922663</v>
-      </c>
-      <c r="H31" s="10">
-        <f t="shared" si="3"/>
-        <v>47.86797692800684</v>
-      </c>
-      <c r="I31" s="10">
-        <f t="shared" si="4"/>
-        <v>15.669210514571324</v>
-      </c>
-      <c r="J31" s="10"/>
-      <c r="L31">
-        <v>2</v>
-      </c>
-      <c r="M31" s="10">
-        <f t="shared" si="5"/>
-        <v>3.8114270757137709</v>
-      </c>
-      <c r="N31" s="10">
-        <f t="shared" si="6"/>
-        <v>3.6309061561084972</v>
-      </c>
-      <c r="O31" s="10">
-        <f t="shared" si="7"/>
-        <v>4.9717869821992577</v>
-      </c>
-    </row>
-    <row r="32" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="F32">
-        <v>3</v>
-      </c>
-      <c r="G32" s="10">
-        <f t="shared" si="2"/>
-        <v>54.473403118991669</v>
-      </c>
-      <c r="H32" s="10">
-        <f t="shared" si="3"/>
-        <v>47.86797692800684</v>
-      </c>
-      <c r="I32" s="10">
-        <f t="shared" si="4"/>
-        <v>13.799259160083896</v>
-      </c>
-      <c r="J32" s="10"/>
-      <c r="L32">
-        <v>3</v>
-      </c>
-      <c r="M32" s="10">
-        <f t="shared" si="5"/>
-        <v>3.7907764093482501</v>
-      </c>
-      <c r="N32" s="10">
-        <f t="shared" si="6"/>
-        <v>3.6309061561084972</v>
-      </c>
-      <c r="O32" s="10">
-        <f t="shared" si="7"/>
-        <v>4.4030400777721379</v>
-      </c>
-    </row>
-    <row r="33" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F33">
-        <v>4</v>
-      </c>
-      <c r="G33" s="10">
-        <f t="shared" si="2"/>
-        <v>53.545899579777327</v>
-      </c>
-      <c r="H33" s="10">
-        <f t="shared" si="3"/>
-        <v>47.303210154659268</v>
-      </c>
-      <c r="I33" s="10">
-        <f t="shared" si="4"/>
-        <v>13.197179228867126</v>
-      </c>
-      <c r="J33" s="10"/>
-      <c r="L33">
-        <v>4</v>
-      </c>
-      <c r="M33" s="10">
-        <f t="shared" si="5"/>
-        <v>3.7691382988321687</v>
-      </c>
-      <c r="N33" s="10">
-        <f t="shared" si="6"/>
-        <v>3.6165699669764839</v>
-      </c>
-      <c r="O33" s="10">
-        <f t="shared" si="7"/>
-        <v>4.2185920153297776</v>
-      </c>
-    </row>
-    <row r="34" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F34">
-        <v>5</v>
-      </c>
-      <c r="G34" s="10">
-        <f t="shared" si="2"/>
-        <v>636.36568848758463</v>
-      </c>
-      <c r="H34" s="10">
-        <f t="shared" si="3"/>
-        <v>577.67494356659142</v>
-      </c>
-      <c r="I34" s="10">
-        <f t="shared" si="4"/>
-        <v>10.159821812355903</v>
-      </c>
-      <c r="J34" s="10"/>
-      <c r="L34">
-        <v>5</v>
-      </c>
-      <c r="M34" s="10">
-        <f t="shared" si="5"/>
-        <v>8.6013955211821376</v>
-      </c>
-      <c r="N34" s="10">
-        <f t="shared" si="6"/>
-        <v>8.3283923556629311</v>
-      </c>
-      <c r="O34" s="10">
-        <f t="shared" si="7"/>
-        <v>3.2779815582724874</v>
-      </c>
-    </row>
-    <row r="35" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F35">
-        <v>6</v>
-      </c>
-      <c r="G35" s="10">
-        <f t="shared" si="2"/>
-        <v>600.59115179252478</v>
-      </c>
-      <c r="H35" s="10">
-        <f t="shared" si="3"/>
-        <v>548.29328756674295</v>
-      </c>
-      <c r="I35" s="10">
-        <f t="shared" si="4"/>
-        <v>9.5383010173028424</v>
       </c>
       <c r="J35" s="10"/>
       <c r="L35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M35" s="10">
+        <f>V3/U3</f>
+        <v>4.0681357968422374</v>
+      </c>
+      <c r="N35" s="10">
+        <f>P20/U3</f>
+        <v>3.8659559847566682</v>
+      </c>
+      <c r="O35" s="10">
+        <f t="shared" ref="O35:O45" si="6">ABS(N35-M35)/N35*100</f>
+        <v>5.2297494560920299</v>
+      </c>
+    </row>
+    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" s="11">
+        <f t="shared" si="3"/>
+        <v>55.368511001922663</v>
+      </c>
+      <c r="H36" s="11">
+        <f t="shared" si="4"/>
+        <v>47.86797692800684</v>
+      </c>
+      <c r="I36" s="11">
         <f t="shared" si="5"/>
-        <v>8.4370957256483923</v>
-      </c>
-      <c r="N35" s="10">
-        <f t="shared" si="6"/>
-        <v>8.184729101723681</v>
-      </c>
-      <c r="O35" s="10">
-        <f t="shared" si="7"/>
-        <v>3.0833839555125118</v>
-      </c>
-    </row>
-    <row r="36" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F36">
-        <v>7</v>
-      </c>
-      <c r="G36" s="10">
-        <f t="shared" si="2"/>
-        <v>9774.554745622605</v>
-      </c>
-      <c r="H36" s="10">
-        <f t="shared" si="3"/>
-        <v>9155.3317802660276</v>
-      </c>
-      <c r="I36" s="10">
-        <f t="shared" si="4"/>
-        <v>6.7635229418041316</v>
+        <v>15.669210514571324</v>
       </c>
       <c r="J36" s="10"/>
       <c r="L36">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M36" s="10">
+        <f>V4/U4</f>
+        <v>3.8114270757137709</v>
+      </c>
+      <c r="N36" s="10">
+        <f>P21/U4</f>
+        <v>3.6309061561084972</v>
+      </c>
+      <c r="O36" s="10">
+        <f t="shared" si="6"/>
+        <v>4.9717869821992577</v>
+      </c>
+    </row>
+    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37" s="11">
+        <f t="shared" si="3"/>
+        <v>54.473403118991669</v>
+      </c>
+      <c r="H37" s="11">
+        <f t="shared" si="4"/>
+        <v>47.86797692800684</v>
+      </c>
+      <c r="I37" s="11">
         <f t="shared" si="5"/>
-        <v>21.381212399429028</v>
-      </c>
-      <c r="N36" s="10">
-        <f t="shared" si="6"/>
-        <v>20.91982412767079</v>
-      </c>
-      <c r="O36" s="10">
-        <f t="shared" si="7"/>
-        <v>2.2055074122155607</v>
-      </c>
-    </row>
-    <row r="37" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F37">
-        <v>8</v>
-      </c>
-      <c r="G37" s="10">
-        <f t="shared" si="2"/>
-        <v>8786.0356607232115</v>
-      </c>
-      <c r="H37" s="10">
-        <f t="shared" si="3"/>
-        <v>8266.372271288119</v>
-      </c>
-      <c r="I37" s="10">
-        <f t="shared" si="4"/>
-        <v>6.2864745547458298</v>
+        <v>13.799259160083896</v>
       </c>
       <c r="J37" s="10"/>
       <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37" s="10">
+        <f>V5/U5</f>
+        <v>3.7907764093482501</v>
+      </c>
+      <c r="N37" s="10">
+        <f>P22/U5</f>
+        <v>3.6309061561084972</v>
+      </c>
+      <c r="O37" s="10">
+        <f t="shared" si="6"/>
+        <v>4.4030400777721379</v>
+      </c>
+    </row>
+    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" s="11">
+        <f t="shared" si="3"/>
+        <v>53.545899579777327</v>
+      </c>
+      <c r="H38" s="11">
+        <f t="shared" si="4"/>
+        <v>47.303210154659268</v>
+      </c>
+      <c r="I38" s="11">
+        <f t="shared" si="5"/>
+        <v>13.197179228867126</v>
+      </c>
+      <c r="J38" s="10"/>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38" s="10">
+        <f>V6/U6</f>
+        <v>3.7691382988321687</v>
+      </c>
+      <c r="N38" s="10">
+        <f>P23/U6</f>
+        <v>3.6165699669764839</v>
+      </c>
+      <c r="O38" s="10">
+        <f t="shared" si="6"/>
+        <v>4.2185920153297776</v>
+      </c>
+    </row>
+    <row r="39" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" s="11">
+        <f t="shared" si="3"/>
+        <v>636.36568848758463</v>
+      </c>
+      <c r="H39" s="11">
+        <f t="shared" si="4"/>
+        <v>577.67494356659142</v>
+      </c>
+      <c r="I39" s="11">
+        <f t="shared" si="5"/>
+        <v>10.159821812355903</v>
+      </c>
+      <c r="J39" s="10"/>
+      <c r="L39">
+        <v>5</v>
+      </c>
+      <c r="M39" s="10">
+        <f>V7/U7</f>
+        <v>8.6013955211821376</v>
+      </c>
+      <c r="N39" s="10">
+        <f>P24/U7</f>
+        <v>8.3283923556629311</v>
+      </c>
+      <c r="O39" s="10">
+        <f t="shared" si="6"/>
+        <v>3.2779815582724874</v>
+      </c>
+    </row>
+    <row r="40" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40" s="11">
+        <f t="shared" si="3"/>
+        <v>600.59115179252478</v>
+      </c>
+      <c r="H40" s="11">
+        <f t="shared" si="4"/>
+        <v>548.29328756674295</v>
+      </c>
+      <c r="I40" s="11">
+        <f t="shared" si="5"/>
+        <v>9.5383010173028424</v>
+      </c>
+      <c r="J40" s="10"/>
+      <c r="L40">
+        <v>6</v>
+      </c>
+      <c r="M40" s="10">
+        <f>V8/U8</f>
+        <v>8.4370957256483923</v>
+      </c>
+      <c r="N40" s="10">
+        <f>P25/U8</f>
+        <v>8.184729101723681</v>
+      </c>
+      <c r="O40" s="10">
+        <f t="shared" si="6"/>
+        <v>3.0833839555125118</v>
+      </c>
+    </row>
+    <row r="41" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41" s="11">
+        <f t="shared" si="3"/>
+        <v>9774.554745622605</v>
+      </c>
+      <c r="H41" s="11">
+        <f t="shared" si="4"/>
+        <v>9155.3317802660276</v>
+      </c>
+      <c r="I41" s="11">
+        <f t="shared" si="5"/>
+        <v>6.7635229418041316</v>
+      </c>
+      <c r="J41" s="10"/>
+      <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="M41" s="10">
+        <f>V9/U9</f>
+        <v>21.381212399429028</v>
+      </c>
+      <c r="N41" s="10">
+        <f>P26/U9</f>
+        <v>20.91982412767079</v>
+      </c>
+      <c r="O41" s="10">
+        <f t="shared" si="6"/>
+        <v>2.2055074122155607</v>
+      </c>
+    </row>
+    <row r="42" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F42">
         <v>8</v>
       </c>
-      <c r="M37" s="10">
+      <c r="G42" s="11">
+        <f t="shared" si="3"/>
+        <v>8786.0356607232115</v>
+      </c>
+      <c r="H42" s="11">
+        <f t="shared" si="4"/>
+        <v>8266.372271288119</v>
+      </c>
+      <c r="I42" s="11">
         <f t="shared" si="5"/>
+        <v>6.2864745547458298</v>
+      </c>
+      <c r="J42" s="10"/>
+      <c r="L42">
+        <v>8</v>
+      </c>
+      <c r="M42" s="10">
+        <f>V10/U10</f>
         <v>20.634675989888891</v>
       </c>
-      <c r="N37" s="10">
+      <c r="N42" s="10">
+        <f>P27/U10</f>
+        <v>20.219557791613568</v>
+      </c>
+      <c r="O42" s="10">
         <f t="shared" si="6"/>
-        <v>20.219557791613568</v>
-      </c>
-      <c r="O37" s="10">
-        <f t="shared" si="7"/>
         <v>2.0530528043867546</v>
       </c>
     </row>
-    <row r="38" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F38">
+    <row r="43" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F43">
         <v>9</v>
       </c>
-      <c r="G38" s="10">
-        <f t="shared" si="2"/>
+      <c r="G43" s="11">
+        <f t="shared" si="3"/>
         <v>50.22469377019614</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H43" s="11">
+        <f t="shared" si="4"/>
+        <v>44.646426692718123</v>
+      </c>
+      <c r="I43" s="11">
+        <f t="shared" si="5"/>
+        <v>12.494319233811915</v>
+      </c>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="9">
+        <v>9</v>
+      </c>
+      <c r="M43" s="10">
+        <f>V11/U11</f>
+        <v>3.6895417788735978</v>
+      </c>
+      <c r="N43" s="10">
+        <f>P28/U11</f>
+        <v>3.5475530765375241</v>
+      </c>
+      <c r="O43" s="10">
+        <f t="shared" si="6"/>
+        <v>4.0024405350027141</v>
+      </c>
+    </row>
+    <row r="44" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44" s="11">
         <f t="shared" si="3"/>
-        <v>44.646426692718123</v>
-      </c>
-      <c r="I38" s="10">
+        <v>30.251897533206833</v>
+      </c>
+      <c r="H44" s="11">
         <f t="shared" si="4"/>
-        <v>12.494319233811915</v>
-      </c>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="9">
-        <v>9</v>
-      </c>
-      <c r="M38" s="10">
+        <v>26.911764705882355</v>
+      </c>
+      <c r="I44" s="11">
         <f t="shared" si="5"/>
-        <v>3.6895417788735978</v>
-      </c>
-      <c r="N38" s="10">
+        <v>12.411422527763087</v>
+      </c>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="9">
+        <v>10</v>
+      </c>
+      <c r="M44" s="10">
+        <f>V12/U12</f>
+        <v>3.1159049913413193</v>
+      </c>
+      <c r="N44" s="10">
+        <f>P29/U12</f>
+        <v>2.9967284597821839</v>
+      </c>
+      <c r="O44" s="10">
         <f t="shared" si="6"/>
-        <v>3.5475530765375241</v>
-      </c>
-      <c r="O38" s="10">
-        <f t="shared" si="7"/>
-        <v>4.0024405350027141</v>
-      </c>
-    </row>
-    <row r="39" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F39">
-        <v>10</v>
-      </c>
-      <c r="G39" s="10">
-        <f t="shared" si="2"/>
-        <v>30.251897533206833</v>
-      </c>
-      <c r="H39" s="10">
+        <v>3.9768879015417244</v>
+      </c>
+    </row>
+    <row r="45" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>11</v>
+      </c>
+      <c r="G45" s="11">
         <f t="shared" si="3"/>
-        <v>26.911764705882355</v>
-      </c>
-      <c r="I39" s="10">
+        <v>5.543846443357169</v>
+      </c>
+      <c r="H45" s="11">
         <f t="shared" si="4"/>
-        <v>12.411422527763087</v>
-      </c>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="9">
-        <v>10</v>
-      </c>
-      <c r="M39" s="10">
+        <v>5.1143206624012034</v>
+      </c>
+      <c r="I45" s="11">
         <f t="shared" si="5"/>
-        <v>3.1159049913413193</v>
-      </c>
-      <c r="N39" s="10">
+        <v>8.3984913991353203</v>
+      </c>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="9">
+        <v>11</v>
+      </c>
+      <c r="M45" s="10">
+        <f>V13/U13</f>
+        <v>1.7698524612737996</v>
+      </c>
+      <c r="N45" s="10">
+        <f>P30/U13</f>
+        <v>1.7229102369794462</v>
+      </c>
+      <c r="O45" s="10">
         <f t="shared" si="6"/>
-        <v>2.9967284597821839</v>
-      </c>
-      <c r="O39" s="10">
-        <f t="shared" si="7"/>
-        <v>3.9768879015417244</v>
-      </c>
-    </row>
-    <row r="40" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F40">
-        <v>11</v>
-      </c>
-      <c r="G40" s="10">
-        <f t="shared" si="2"/>
-        <v>5.543846443357169</v>
-      </c>
-      <c r="H40" s="10">
+        <v>2.724589086930671</v>
+      </c>
+    </row>
+    <row r="46" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>12</v>
+      </c>
+      <c r="G46" s="11">
         <f t="shared" si="3"/>
-        <v>5.1143206624012034</v>
-      </c>
-      <c r="I40" s="10">
+        <v>2.0297093397274697</v>
+      </c>
+      <c r="H46" s="11">
         <f t="shared" si="4"/>
-        <v>8.3984913991353203</v>
-      </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="9">
-        <v>11</v>
-      </c>
-      <c r="M40" s="10">
+        <v>1.9671325808526814</v>
+      </c>
+      <c r="I46" s="11">
         <f t="shared" si="5"/>
-        <v>1.7698524612737996</v>
-      </c>
-      <c r="N40" s="10">
-        <f t="shared" si="6"/>
-        <v>1.7229102369794462</v>
-      </c>
-      <c r="O40" s="10">
-        <f t="shared" si="7"/>
-        <v>2.724589086930671</v>
-      </c>
-    </row>
-    <row r="41" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-    </row>
-    <row r="42" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-    </row>
-    <row r="43" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="L43" s="9"/>
-    </row>
-    <row r="44" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="L44" s="9"/>
-    </row>
-    <row r="45" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="L45" s="9"/>
-    </row>
-    <row r="46" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="L46" s="9"/>
-    </row>
-    <row r="47" spans="6:15" x14ac:dyDescent="0.25">
+        <v>3.1811154715186265</v>
+      </c>
+      <c r="L46" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
       <c r="L47" s="9"/>
+    </row>
+    <row r="48" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+    </row>
+    <row r="49" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results_and_scripts_ps/agglomeration_comparision.xlsx
+++ b/Results_and_scripts_ps/agglomeration_comparision.xlsx
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,15 +1982,15 @@
         <v>1</v>
       </c>
       <c r="M35" s="10">
-        <f>V3/U3</f>
+        <f t="shared" ref="M35:M45" si="6">V3/U3</f>
         <v>4.0681357968422374</v>
       </c>
       <c r="N35" s="10">
-        <f>P20/U3</f>
+        <f t="shared" ref="N35:N45" si="7">P20/U3</f>
         <v>3.8659559847566682</v>
       </c>
       <c r="O35" s="10">
-        <f t="shared" ref="O35:O45" si="6">ABS(N35-M35)/N35*100</f>
+        <f t="shared" ref="O35:O45" si="8">ABS(N35-M35)/N35*100</f>
         <v>5.2297494560920299</v>
       </c>
     </row>
@@ -2015,15 +2015,15 @@
         <v>2</v>
       </c>
       <c r="M36" s="10">
-        <f>V4/U4</f>
+        <f t="shared" si="6"/>
         <v>3.8114270757137709</v>
       </c>
       <c r="N36" s="10">
-        <f>P21/U4</f>
+        <f t="shared" si="7"/>
         <v>3.6309061561084972</v>
       </c>
       <c r="O36" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.9717869821992577</v>
       </c>
     </row>
@@ -2048,15 +2048,15 @@
         <v>3</v>
       </c>
       <c r="M37" s="10">
-        <f>V5/U5</f>
+        <f t="shared" si="6"/>
         <v>3.7907764093482501</v>
       </c>
       <c r="N37" s="10">
-        <f>P22/U5</f>
+        <f t="shared" si="7"/>
         <v>3.6309061561084972</v>
       </c>
       <c r="O37" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.4030400777721379</v>
       </c>
     </row>
@@ -2081,15 +2081,15 @@
         <v>4</v>
       </c>
       <c r="M38" s="10">
-        <f>V6/U6</f>
+        <f t="shared" si="6"/>
         <v>3.7691382988321687</v>
       </c>
       <c r="N38" s="10">
-        <f>P23/U6</f>
+        <f t="shared" si="7"/>
         <v>3.6165699669764839</v>
       </c>
       <c r="O38" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.2185920153297776</v>
       </c>
     </row>
@@ -2114,15 +2114,15 @@
         <v>5</v>
       </c>
       <c r="M39" s="10">
-        <f>V7/U7</f>
+        <f t="shared" si="6"/>
         <v>8.6013955211821376</v>
       </c>
       <c r="N39" s="10">
-        <f>P24/U7</f>
+        <f t="shared" si="7"/>
         <v>8.3283923556629311</v>
       </c>
       <c r="O39" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.2779815582724874</v>
       </c>
     </row>
@@ -2147,15 +2147,15 @@
         <v>6</v>
       </c>
       <c r="M40" s="10">
-        <f>V8/U8</f>
+        <f t="shared" si="6"/>
         <v>8.4370957256483923</v>
       </c>
       <c r="N40" s="10">
-        <f>P25/U8</f>
+        <f t="shared" si="7"/>
         <v>8.184729101723681</v>
       </c>
       <c r="O40" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.0833839555125118</v>
       </c>
     </row>
@@ -2180,15 +2180,15 @@
         <v>7</v>
       </c>
       <c r="M41" s="10">
-        <f>V9/U9</f>
+        <f t="shared" si="6"/>
         <v>21.381212399429028</v>
       </c>
       <c r="N41" s="10">
-        <f>P26/U9</f>
+        <f t="shared" si="7"/>
         <v>20.91982412767079</v>
       </c>
       <c r="O41" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.2055074122155607</v>
       </c>
     </row>
@@ -2213,15 +2213,15 @@
         <v>8</v>
       </c>
       <c r="M42" s="10">
-        <f>V10/U10</f>
+        <f t="shared" si="6"/>
         <v>20.634675989888891</v>
       </c>
       <c r="N42" s="10">
-        <f>P27/U10</f>
+        <f t="shared" si="7"/>
         <v>20.219557791613568</v>
       </c>
       <c r="O42" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0530528043867546</v>
       </c>
     </row>
@@ -2247,15 +2247,15 @@
         <v>9</v>
       </c>
       <c r="M43" s="10">
-        <f>V11/U11</f>
+        <f t="shared" si="6"/>
         <v>3.6895417788735978</v>
       </c>
       <c r="N43" s="10">
-        <f>P28/U11</f>
+        <f t="shared" si="7"/>
         <v>3.5475530765375241</v>
       </c>
       <c r="O43" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.0024405350027141</v>
       </c>
     </row>
@@ -2281,15 +2281,15 @@
         <v>10</v>
       </c>
       <c r="M44" s="10">
-        <f>V12/U12</f>
+        <f t="shared" si="6"/>
         <v>3.1159049913413193</v>
       </c>
       <c r="N44" s="10">
-        <f>P29/U12</f>
+        <f t="shared" si="7"/>
         <v>2.9967284597821839</v>
       </c>
       <c r="O44" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.9768879015417244</v>
       </c>
     </row>
@@ -2315,15 +2315,15 @@
         <v>11</v>
       </c>
       <c r="M45" s="10">
-        <f>V13/U13</f>
+        <f t="shared" si="6"/>
         <v>1.7698524612737996</v>
       </c>
       <c r="N45" s="10">
-        <f>P30/U13</f>
+        <f t="shared" si="7"/>
         <v>1.7229102369794462</v>
       </c>
       <c r="O45" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.724589086930671</v>
       </c>
     </row>
